--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>410667.6383922222</v>
+        <v>407968.5862983148</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>133.833359060644</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,7 +674,7 @@
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663202</v>
+        <v>187.52558716632</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368126</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>145.198658204325</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>36.39469600159752</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714232</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>33.53042748597748</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663202</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.67786622941679</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553079</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845744</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.5255871663202</v>
+        <v>165.1725371760945</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>64.87992250788345</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>338.8666273595236</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.12176100286048</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>306.8976264094352</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>136.5335673127885</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.1711248816494</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0911747868545</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>104.9418659566865</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.6415446830818</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>95.79797317841046</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>30.79801895224382</v>
+        <v>30.7980189522438</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>66.73157718455738</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5641028040799</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>126.8775656176089</v>
+        <v>286.241199726252</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>242.7741554461716</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>208.2474868886324</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>159.2508239713356</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>142.676805285317</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>47.82814756577479</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>338.1904981984422</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,16 +1376,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544491</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>76.66276752108858</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530784</v>
+        <v>10.48847705530788</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>136.7254352278186</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905237</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920368</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>165.2458858592731</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>139.1465069965567</v>
+        <v>99.974274198335</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272914</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428186</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>245.9454996361803</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833801</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>74.99129529219167</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833807</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>153.5899618586515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833774</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428088</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053461</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>83.06560892428188</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417122</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833771</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428088</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503959</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>113.64270308332</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833801</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.955370467302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>549.2024635036631</v>
+        <v>414.0172523312949</v>
       </c>
       <c r="C2" t="n">
-        <v>359.782678487178</v>
+        <v>414.0172523312949</v>
       </c>
       <c r="D2" t="n">
-        <v>224.5974673148104</v>
+        <v>414.0172523312949</v>
       </c>
       <c r="E2" t="n">
-        <v>224.5974673148104</v>
+        <v>224.5974673148101</v>
       </c>
       <c r="F2" t="n">
-        <v>217.6519665656069</v>
+        <v>217.6519665656066</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897907</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678506</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058973</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079189</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644761</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123837</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985593</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020275</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201482</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201482</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201482</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201482</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V2" t="n">
-        <v>738.6222485201482</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="W2" t="n">
-        <v>738.6222485201482</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="X2" t="n">
-        <v>738.6222485201482</v>
+        <v>414.0172523312949</v>
       </c>
       <c r="Y2" t="n">
-        <v>738.6222485201482</v>
+        <v>414.0172523312949</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>348.3473131497357</v>
+        <v>51.76436616683844</v>
       </c>
       <c r="C3" t="n">
-        <v>348.3473131497357</v>
+        <v>51.76436616683844</v>
       </c>
       <c r="D3" t="n">
-        <v>348.3473131497357</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>348.3473131497357</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8127551766207</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
         <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017073</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>722.919292284329</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S3" t="n">
-        <v>571.6362168389253</v>
+        <v>598.8192732198761</v>
       </c>
       <c r="T3" t="n">
-        <v>571.6362168389253</v>
+        <v>598.8192732198761</v>
       </c>
       <c r="U3" t="n">
-        <v>571.6362168389253</v>
+        <v>598.8192732198761</v>
       </c>
       <c r="V3" t="n">
-        <v>537.7670981662208</v>
+        <v>409.3994882033913</v>
       </c>
       <c r="W3" t="n">
-        <v>348.3473131497357</v>
+        <v>219.9797031869065</v>
       </c>
       <c r="X3" t="n">
-        <v>348.3473131497357</v>
+        <v>219.9797031869065</v>
       </c>
       <c r="Y3" t="n">
-        <v>348.3473131497357</v>
+        <v>219.9797031869065</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.5624574060956</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>185.5624574060956</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>185.5624574060956</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>185.5624574060956</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>43.17590452428149</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>216.0634826394166</v>
+        <v>279.6026869745585</v>
       </c>
       <c r="M4" t="n">
-        <v>401.7138139340736</v>
+        <v>401.7138139340728</v>
       </c>
       <c r="N4" t="n">
-        <v>587.3641452287306</v>
+        <v>587.3641452287296</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846285</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R4" t="n">
-        <v>612.5614882768605</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S4" t="n">
-        <v>612.5614882768605</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="T4" t="n">
-        <v>612.5614882768605</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="U4" t="n">
-        <v>612.5614882768605</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="V4" t="n">
-        <v>423.1417032603754</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="W4" t="n">
-        <v>423.1417032603754</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="X4" t="n">
-        <v>423.1417032603754</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="Y4" t="n">
-        <v>233.7219182438903</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>392.0998857559989</v>
+        <v>1110.807417558593</v>
       </c>
       <c r="C5" t="n">
-        <v>392.0998857559989</v>
+        <v>1110.807417558593</v>
       </c>
       <c r="D5" t="n">
-        <v>392.0998857559989</v>
+        <v>752.5417189518421</v>
       </c>
       <c r="E5" t="n">
-        <v>392.0998857559989</v>
+        <v>366.7534663535979</v>
       </c>
       <c r="F5" t="n">
-        <v>49.81036317062149</v>
+        <v>359.8079656043944</v>
       </c>
       <c r="G5" t="n">
-        <v>37.56616013742908</v>
+        <v>347.5637625712021</v>
       </c>
       <c r="H5" t="n">
-        <v>37.56616013742908</v>
+        <v>37.56616013742911</v>
       </c>
       <c r="I5" t="n">
-        <v>37.56616013742908</v>
+        <v>37.56616013742911</v>
       </c>
       <c r="J5" t="n">
-        <v>125.6123058620869</v>
+        <v>125.6123058620871</v>
       </c>
       <c r="K5" t="n">
-        <v>308.3091729405702</v>
+        <v>308.3091729405706</v>
       </c>
       <c r="L5" t="n">
-        <v>571.8625535714447</v>
+        <v>571.862553571445</v>
       </c>
       <c r="M5" t="n">
-        <v>896.7859082672676</v>
+        <v>896.785908267268</v>
       </c>
       <c r="N5" t="n">
-        <v>1231.58067091781</v>
+        <v>1231.580670917811</v>
       </c>
       <c r="O5" t="n">
-        <v>1534.382610379518</v>
+        <v>1534.382610379519</v>
       </c>
       <c r="P5" t="n">
-        <v>1758.316059280667</v>
+        <v>1758.316059280669</v>
       </c>
       <c r="Q5" t="n">
-        <v>1878.308006871454</v>
+        <v>1878.308006871456</v>
       </c>
       <c r="R5" t="n">
-        <v>1878.308006871454</v>
+        <v>1878.308006871456</v>
       </c>
       <c r="S5" t="n">
-        <v>1740.395312616112</v>
+        <v>1740.395312616114</v>
       </c>
       <c r="T5" t="n">
-        <v>1740.395312616112</v>
+        <v>1529.111348089195</v>
       </c>
       <c r="U5" t="n">
-        <v>1486.767863336461</v>
+        <v>1529.111348089195</v>
       </c>
       <c r="V5" t="n">
-        <v>1155.70497599289</v>
+        <v>1529.111348089195</v>
       </c>
       <c r="W5" t="n">
-        <v>1155.70497599289</v>
+        <v>1176.342692819081</v>
       </c>
       <c r="X5" t="n">
-        <v>782.2392177318106</v>
+        <v>1176.342692819081</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.0998857559989</v>
+        <v>1176.342692819081</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>408.4544457641186</v>
+        <v>548.9003124498981</v>
       </c>
       <c r="C6" t="n">
-        <v>408.4544457641186</v>
+        <v>374.4472831687712</v>
       </c>
       <c r="D6" t="n">
-        <v>408.4544457641186</v>
+        <v>374.4472831687712</v>
       </c>
       <c r="E6" t="n">
-        <v>408.4544457641186</v>
+        <v>215.2098281633156</v>
       </c>
       <c r="F6" t="n">
-        <v>302.4525609593848</v>
+        <v>68.67527019020062</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4408996633425</v>
+        <v>68.67527019020062</v>
       </c>
       <c r="H6" t="n">
         <v>68.67527019020062</v>
       </c>
       <c r="I6" t="n">
-        <v>37.56616013742908</v>
+        <v>37.56616013742911</v>
       </c>
       <c r="J6" t="n">
-        <v>132.4305237738417</v>
+        <v>71.18799439756006</v>
       </c>
       <c r="K6" t="n">
-        <v>529.871003098753</v>
+        <v>206.8078890800187</v>
       </c>
       <c r="L6" t="n">
-        <v>758.5512291889945</v>
+        <v>435.4881151702604</v>
       </c>
       <c r="M6" t="n">
-        <v>1044.767135059135</v>
+        <v>721.7040210404014</v>
       </c>
       <c r="N6" t="n">
-        <v>1352.966969211398</v>
+        <v>1186.585252741087</v>
       </c>
       <c r="O6" t="n">
-        <v>1612.689810537062</v>
+        <v>1446.30809406675</v>
       </c>
       <c r="P6" t="n">
-        <v>1801.807222027792</v>
+        <v>1801.807222027793</v>
       </c>
       <c r="Q6" t="n">
-        <v>1878.308006871454</v>
+        <v>1878.308006871456</v>
       </c>
       <c r="R6" t="n">
-        <v>1878.308006871454</v>
+        <v>1878.308006871456</v>
       </c>
       <c r="S6" t="n">
-        <v>1736.823381856703</v>
+        <v>1736.823381856705</v>
       </c>
       <c r="T6" t="n">
-        <v>1541.566225055441</v>
+        <v>1541.566225055442</v>
       </c>
       <c r="U6" t="n">
-        <v>1313.45570969455</v>
+        <v>1313.455709694551</v>
       </c>
       <c r="V6" t="n">
-        <v>1078.303601462807</v>
+        <v>1078.303601462809</v>
       </c>
       <c r="W6" t="n">
-        <v>824.0662447346053</v>
+        <v>824.0662447346069</v>
       </c>
       <c r="X6" t="n">
-        <v>616.2147445290725</v>
+        <v>756.660611214852</v>
       </c>
       <c r="Y6" t="n">
-        <v>408.4544457641186</v>
+        <v>548.9003124498981</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>671.7554984645516</v>
+        <v>37.56616013742911</v>
       </c>
       <c r="C7" t="n">
-        <v>502.8193155366447</v>
+        <v>37.56616013742911</v>
       </c>
       <c r="D7" t="n">
-        <v>352.702676124309</v>
+        <v>37.56616013742911</v>
       </c>
       <c r="E7" t="n">
-        <v>352.702676124309</v>
+        <v>37.56616013742911</v>
       </c>
       <c r="F7" t="n">
-        <v>205.8127286263986</v>
+        <v>37.56616013742911</v>
       </c>
       <c r="G7" t="n">
-        <v>37.56616013742908</v>
+        <v>37.56616013742911</v>
       </c>
       <c r="H7" t="n">
-        <v>37.56616013742908</v>
+        <v>37.56616013742911</v>
       </c>
       <c r="I7" t="n">
-        <v>37.56616013742908</v>
+        <v>37.56616013742911</v>
       </c>
       <c r="J7" t="n">
-        <v>45.01194249256544</v>
+        <v>45.01194249256551</v>
       </c>
       <c r="K7" t="n">
-        <v>187.0844868696025</v>
+        <v>187.0844868696027</v>
       </c>
       <c r="L7" t="n">
-        <v>424.4148644101284</v>
+        <v>424.4148644101286</v>
       </c>
       <c r="M7" t="n">
-        <v>685.035594446749</v>
+        <v>685.0355944467494</v>
       </c>
       <c r="N7" t="n">
-        <v>944.8939624609258</v>
+        <v>944.8939624609263</v>
       </c>
       <c r="O7" t="n">
-        <v>1168.898929103173</v>
+        <v>1168.898929103174</v>
       </c>
       <c r="P7" t="n">
-        <v>1337.05319389053</v>
+        <v>1337.053193890531</v>
       </c>
       <c r="Q7" t="n">
-        <v>1370.039410552809</v>
+        <v>1370.03941055281</v>
       </c>
       <c r="R7" t="n">
-        <v>1255.760791512124</v>
+        <v>1255.760791512125</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.599143859942</v>
+        <v>1054.599143859943</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.599143859942</v>
+        <v>1054.599143859943</v>
       </c>
       <c r="U7" t="n">
-        <v>926.4399866704384</v>
+        <v>765.4666188839309</v>
       </c>
       <c r="V7" t="n">
-        <v>671.7554984645516</v>
+        <v>510.782130678044</v>
       </c>
       <c r="W7" t="n">
-        <v>671.7554984645516</v>
+        <v>265.5557110354464</v>
       </c>
       <c r="X7" t="n">
-        <v>671.7554984645516</v>
+        <v>37.56616013742911</v>
       </c>
       <c r="Y7" t="n">
-        <v>671.7554984645516</v>
+        <v>37.56616013742911</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1785.600156360221</v>
+        <v>1378.810406950777</v>
       </c>
       <c r="C8" t="n">
-        <v>1416.63763941981</v>
+        <v>1378.810406950777</v>
       </c>
       <c r="D8" t="n">
-        <v>1058.371940813059</v>
+        <v>1020.544708344026</v>
       </c>
       <c r="E8" t="n">
-        <v>672.5836882148151</v>
+        <v>634.756455745782</v>
       </c>
       <c r="F8" t="n">
-        <v>261.5977834252075</v>
+        <v>223.7705509561744</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>212.1062047208674</v>
       </c>
       <c r="H8" t="n">
         <v>51.2467865680031</v>
@@ -4802,13 +4802,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400155</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="Y8" t="n">
-        <v>2172.199996424343</v>
+        <v>1378.810406950777</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429755</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744472</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
         <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O9" t="n">
         <v>1884.562538506774</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>596.8487640096978</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C10" t="n">
-        <v>596.8487640096978</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>596.8487640096978</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>596.8487640096978</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>449.9588165117874</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1485.55145342263</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1262.572972617366</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>973.4546351212036</v>
       </c>
       <c r="V10" t="n">
-        <v>1114.255484944676</v>
+        <v>718.7701469153168</v>
       </c>
       <c r="W10" t="n">
-        <v>824.8383149077151</v>
+        <v>429.3529768783562</v>
       </c>
       <c r="X10" t="n">
-        <v>596.8487640096978</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="Y10" t="n">
-        <v>596.8487640096978</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1630.367550811545</v>
+        <v>1898.076467649853</v>
       </c>
       <c r="C11" t="n">
-        <v>1261.405033871134</v>
+        <v>1529.113950709441</v>
       </c>
       <c r="D11" t="n">
-        <v>903.139335264383</v>
+        <v>1170.848252102691</v>
       </c>
       <c r="E11" t="n">
-        <v>903.139335264383</v>
+        <v>785.0599995044468</v>
       </c>
       <c r="F11" t="n">
-        <v>492.1534304747752</v>
+        <v>785.0599995044468</v>
       </c>
       <c r="G11" t="n">
-        <v>77.53766591592078</v>
+        <v>370.4442349455923</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706895</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656966</v>
+        <v>695.1615405656976</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625331</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.956123087833</v>
       </c>
       <c r="N11" t="n">
         <v>2455.600890484044</v>
@@ -5063,28 +5063,28 @@
         <v>3789.749829464063</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796039</v>
+        <v>3876.883295796038</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796039</v>
+        <v>3876.883295796038</v>
       </c>
       <c r="T11" t="n">
         <v>3672.904689377403</v>
       </c>
       <c r="U11" t="n">
-        <v>3419.410747498932</v>
+        <v>3419.410747498931</v>
       </c>
       <c r="V11" t="n">
-        <v>3088.347860155361</v>
+        <v>3088.34786015536</v>
       </c>
       <c r="W11" t="n">
-        <v>2735.579204885247</v>
+        <v>2735.579204885245</v>
       </c>
       <c r="X11" t="n">
-        <v>2362.113446624167</v>
+        <v>2362.113446624166</v>
       </c>
       <c r="Y11" t="n">
-        <v>1971.974114648355</v>
+        <v>2284.676307713975</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870415</v>
+        <v>193.8410919870413</v>
       </c>
       <c r="K12" t="n">
-        <v>470.776996404666</v>
+        <v>470.7769964046656</v>
       </c>
       <c r="L12" t="n">
-        <v>889.474037062618</v>
+        <v>676.7125526339513</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019147</v>
+        <v>1184.66911859048</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450732</v>
+        <v>1720.47842829169</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783255</v>
+        <v>2188.419472624213</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>835.7893828380002</v>
+        <v>227.6543053282565</v>
       </c>
       <c r="C13" t="n">
-        <v>666.8531999100933</v>
+        <v>227.6543053282565</v>
       </c>
       <c r="D13" t="n">
-        <v>516.7365604977575</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="E13" t="n">
-        <v>368.8234669153644</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="F13" t="n">
-        <v>221.933519417454</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="G13" t="n">
-        <v>221.933519417454</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J13" t="n">
-        <v>136.855221875865</v>
+        <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648149</v>
+        <v>364.1690246648146</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344816</v>
+        <v>710.5788654344811</v>
       </c>
       <c r="M13" t="n">
         <v>1086.20859537694</v>
@@ -5212,37 +5212,37 @@
         <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818666</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010724</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.36296874281</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.36296874281</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276106</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1949.247121276106</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1949.247121276106</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>1694.562633070219</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>1405.145463033258</v>
+        <v>814.5429355999236</v>
       </c>
       <c r="X13" t="n">
-        <v>1238.23042681177</v>
+        <v>586.5533847019062</v>
       </c>
       <c r="Y13" t="n">
-        <v>1017.43784766824</v>
+        <v>365.7608055583761</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615996</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.5007694647272</v>
+        <v>513.853600740068</v>
       </c>
       <c r="C16" t="n">
-        <v>631.5645865368203</v>
+        <v>344.9174178121611</v>
       </c>
       <c r="D16" t="n">
-        <v>631.5645865368203</v>
+        <v>194.8007783998254</v>
       </c>
       <c r="E16" t="n">
-        <v>483.6514929544273</v>
+        <v>194.8007783998254</v>
       </c>
       <c r="F16" t="n">
-        <v>483.6514929544274</v>
+        <v>194.8007783998254</v>
       </c>
       <c r="G16" t="n">
-        <v>316.4553936693073</v>
+        <v>194.8007783998254</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5440,7 +5440,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235164</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579362</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373475</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336514</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.941813438497</v>
+        <v>916.2946447138379</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.149234294967</v>
+        <v>695.5020655703078</v>
       </c>
     </row>
     <row r="17">
@@ -5519,13 +5519,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057246</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797742</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5753,25 +5753,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>724.7519863413024</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133955</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133955</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310024</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1355.18258121309</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1127.193030315072</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y22" t="n">
-        <v>906.4004511715422</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="23">
@@ -5981,25 +5981,25 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998284</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998284</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,19 +6300,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188007</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,13 +6382,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6479,34 +6479,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400704</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121635</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121635</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121635</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121635</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270435</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138403</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703102</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6692,7 +6692,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188007</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6871,7 +6871,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6929,28 +6929,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121646</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121646</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121646</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138414</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7205,16 +7205,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400704</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121635</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121635</v>
+        <v>194.8007783998281</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121635</v>
+        <v>194.8007783998281</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121635</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270435</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7345,7 +7345,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.76484885336</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138403</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703102</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7391,37 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,16 +7430,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400704</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138403</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703102</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188009</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C46" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D46" t="n">
-        <v>402.724593490894</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E46" t="n">
-        <v>402.724593490894</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="F46" t="n">
-        <v>402.724593490894</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925707</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490406</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265832</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>42.56275186471115</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>107.2331895657666</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711118</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709379</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.76852197496456</v>
+        <v>15.76852197496447</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>61.86114078412297</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>158.2640379276995</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>168.0623398690029</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>40.00791436438836</v>
+        <v>40.0079143643883</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>84.94186588374646</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.54334346503835</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393747</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184543</v>
+        <v>24.14662204184555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615203</v>
+        <v>98.88510599615216</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>309.575171134965</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>43.10654495411873</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.2535238992737</v>
+        <v>90.25352389927373</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905233</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>60.46376952976405</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.148205849667161</v>
+        <v>40.32043864788889</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393049</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>40.23897475306391</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823116</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012112</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>142.4141550350966</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393078</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>72.11969353038569</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393111</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823147</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194301</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823066</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>62.35543909864937</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459354</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194301</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823192</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>138.494940240508</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,10 +26035,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393084</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>946860.1097151145</v>
+        <v>946860.1097151143</v>
       </c>
     </row>
     <row r="6">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855343</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855347</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="E2" t="n">
-        <v>347979.8910303382</v>
+        <v>347979.891030338</v>
       </c>
       <c r="F2" t="n">
         <v>383394.6348527528</v>
       </c>
       <c r="G2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="H2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="I2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="J2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="K2" t="n">
         <v>383394.6348527528</v>
       </c>
       <c r="L2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.6348527528</v>
       </c>
       <c r="M2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="N2" t="n">
         <v>383394.6348527528</v>
       </c>
       <c r="O2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.6348527527</v>
       </c>
       <c r="P2" t="n">
         <v>383394.6348527528</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208458</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>312214.8578912889</v>
+        <v>312214.8578912896</v>
       </c>
       <c r="D3" t="n">
-        <v>175413.4991972654</v>
+        <v>175413.4991972652</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545783</v>
+        <v>313577.1573545775</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704279</v>
+        <v>189308.2687704285</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854468</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
-        <v>72591.0084603016</v>
+        <v>72591.0084603017</v>
       </c>
       <c r="L3" t="n">
-        <v>43280.54279925512</v>
+        <v>43280.54279925508</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273097</v>
+        <v>81897.40371273085</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202341</v>
+        <v>49839.57413202352</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277470.8484307131</v>
+        <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>194111.7371403469</v>
+        <v>194111.7371403468</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
@@ -26433,7 +26433,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184275</v>
@@ -26448,16 +26448,16 @@
         <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
+        <v>13606.80811184279</v>
+      </c>
+      <c r="N4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="N4" t="n">
-        <v>13606.80811184271</v>
-      </c>
       <c r="O4" t="n">
-        <v>13606.80811184281</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>79427.52208638303</v>
+        <v>79427.52208638306</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738573</v>
+        <v>85137.4850673857</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-535818.710677638</v>
+        <v>-535818.7106776378</v>
       </c>
       <c r="C6" t="n">
-        <v>-195759.2764324842</v>
+        <v>-195759.2764324848</v>
       </c>
       <c r="D6" t="n">
-        <v>-23511.66164951373</v>
+        <v>-23511.66164951335</v>
       </c>
       <c r="E6" t="n">
-        <v>-64236.14094382207</v>
+        <v>-64457.27225779617</v>
       </c>
       <c r="F6" t="n">
-        <v>79357.02814657506</v>
+        <v>79322.2902211387</v>
       </c>
       <c r="G6" t="n">
-        <v>268665.2969170032</v>
+        <v>268630.5589915673</v>
       </c>
       <c r="H6" t="n">
-        <v>268665.2969170031</v>
+        <v>268630.5589915674</v>
       </c>
       <c r="I6" t="n">
-        <v>268665.296917003</v>
+        <v>268630.5589915673</v>
       </c>
       <c r="J6" t="n">
-        <v>219600.3521884583</v>
+        <v>219565.6142630227</v>
       </c>
       <c r="K6" t="n">
-        <v>196074.2884567014</v>
+        <v>196039.5505312656</v>
       </c>
       <c r="L6" t="n">
-        <v>225384.7541177479</v>
+        <v>225350.0161923122</v>
       </c>
       <c r="M6" t="n">
-        <v>186767.8932042721</v>
+        <v>186733.1552788365</v>
       </c>
       <c r="N6" t="n">
-        <v>218825.7227849796</v>
+        <v>218790.9848595437</v>
       </c>
       <c r="O6" t="n">
-        <v>268665.296917003</v>
+        <v>268630.5589915672</v>
       </c>
       <c r="P6" t="n">
-        <v>268665.296917003</v>
+        <v>268630.5589915673</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>791.2679074282996</v>
+        <v>791.2679074283</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1202.241237214951</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>469.5770017178635</v>
+        <v>469.5770017178639</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490097</v>
+        <v>969.2208239490095</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>242.7979665153947</v>
+        <v>242.7979665153953</v>
       </c>
       <c r="D3" t="n">
-        <v>142.7969846892395</v>
+        <v>142.7969846892394</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974122</v>
+        <v>268.1763450974113</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267225</v>
+        <v>165.7342631267231</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>282.0514145515433</v>
+        <v>282.0514145515439</v>
       </c>
       <c r="D4" t="n">
-        <v>171.0078303821753</v>
+        <v>171.0078303821749</v>
       </c>
       <c r="E4" t="n">
-        <v>328.635991848971</v>
+        <v>328.6359918489708</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506384</v>
+        <v>203.4874641506386</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515433</v>
+        <v>282.0514145515437</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821753</v>
+        <v>171.0078303821751</v>
       </c>
       <c r="M4" t="n">
-        <v>328.635991848971</v>
+        <v>328.6359918489705</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506384</v>
+        <v>203.4874641506389</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515433</v>
+        <v>282.0514145515439</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821753</v>
+        <v>171.0078303821749</v>
       </c>
       <c r="M4" t="n">
-        <v>328.635991848971</v>
+        <v>328.6359918489708</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506384</v>
+        <v>203.4874641506386</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971604</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046873</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>220.849682560039</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399021</v>
+        <v>129.3682389399023</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27436,13 +27436,13 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>224.532442474144</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>111.0503695630412</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27515,10 +27515,10 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>199.2701596634478</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W3" t="n">
-        <v>64.1693959945994</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>132.1541139525205</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318195</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917628</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378014</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750779</v>
+        <v>64.61205615750805</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577458</v>
+        <v>53.41211617600027</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>317.8539191555971</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>68.00941838218779</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>306.8976264094352</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>87.84129258094048</v>
+        <v>87.84129258094042</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.1711248816494</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0911747868545</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,22 +27695,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>40.12734643669739</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.6415446830818</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>95.79797317841046</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>139.0414080189201</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5641028040799</v>
       </c>
       <c r="H7" t="n">
         <v>149.5409427785071</v>
@@ -27825,19 +27825,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>221.8489350595717</v>
+        <v>221.8489350595716</v>
       </c>
       <c r="U7" t="n">
-        <v>159.3636341086431</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>43.74884289041941</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>203.3002158843216</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>141.7677285910698</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28014,22 +28014,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>23.6297947594872</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>146.8343127959627</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-3.097966327914037e-12</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -29466,7 +29466,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043124</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619226</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924586</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590853</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405034</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292675</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550081</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620021</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114199</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31215,31 +31215,31 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784864</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181397</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.180976512274569</v>
+        <v>3.18097651227457</v>
       </c>
       <c r="H5" t="n">
-        <v>32.57717570633194</v>
+        <v>32.57717570633195</v>
       </c>
       <c r="I5" t="n">
-        <v>122.6345969894654</v>
+        <v>122.6345969894655</v>
       </c>
       <c r="J5" t="n">
-        <v>269.9814052586639</v>
+        <v>269.981405258664</v>
       </c>
       <c r="K5" t="n">
-        <v>404.6321410232465</v>
+        <v>404.6321410232467</v>
       </c>
       <c r="L5" t="n">
-        <v>501.9819509607695</v>
+        <v>501.9819509607697</v>
       </c>
       <c r="M5" t="n">
-        <v>558.5516420109323</v>
+        <v>558.5516420109326</v>
       </c>
       <c r="N5" t="n">
-        <v>567.5895915264325</v>
+        <v>567.5895915264327</v>
       </c>
       <c r="O5" t="n">
-        <v>535.9587563325022</v>
+        <v>535.9587563325024</v>
       </c>
       <c r="P5" t="n">
-        <v>457.4283986857237</v>
+        <v>457.4283986857239</v>
       </c>
       <c r="Q5" t="n">
-        <v>343.5096773398906</v>
+        <v>343.5096773398907</v>
       </c>
       <c r="R5" t="n">
-        <v>199.8170158391676</v>
+        <v>199.8170158391677</v>
       </c>
       <c r="S5" t="n">
-        <v>72.48650227345681</v>
+        <v>72.48650227345685</v>
       </c>
       <c r="T5" t="n">
-        <v>13.92472468248193</v>
+        <v>13.92472468248194</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2544781209819655</v>
+        <v>0.2544781209819656</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.701972480128795</v>
+        <v>1.701972480128796</v>
       </c>
       <c r="H6" t="n">
-        <v>16.437471058086</v>
+        <v>16.43747105808601</v>
       </c>
       <c r="I6" t="n">
-        <v>58.59861389917126</v>
+        <v>58.59861389917128</v>
       </c>
       <c r="J6" t="n">
-        <v>160.7990754142736</v>
+        <v>160.7990754142737</v>
       </c>
       <c r="K6" t="n">
-        <v>274.8312315829029</v>
+        <v>274.8312315829031</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5445071437545</v>
+        <v>369.5445071437547</v>
       </c>
       <c r="M6" t="n">
-        <v>431.2410095484232</v>
+        <v>431.2410095484234</v>
       </c>
       <c r="N6" t="n">
-        <v>442.6546758734976</v>
+        <v>442.6546758734978</v>
       </c>
       <c r="O6" t="n">
-        <v>404.9425488138016</v>
+        <v>404.9425488138017</v>
       </c>
       <c r="P6" t="n">
-        <v>325.0020957888049</v>
+        <v>325.002095788805</v>
       </c>
       <c r="Q6" t="n">
-        <v>217.2552941301249</v>
+        <v>217.255294130125</v>
       </c>
       <c r="R6" t="n">
-        <v>105.6715895995756</v>
+        <v>105.6715895995757</v>
       </c>
       <c r="S6" t="n">
-        <v>31.61339233923441</v>
+        <v>31.61339233923442</v>
       </c>
       <c r="T6" t="n">
-        <v>6.860143461571765</v>
+        <v>6.860143461571768</v>
       </c>
       <c r="U6" t="n">
         <v>0.111971873692684</v>
@@ -31440,43 +31440,43 @@
         <v>12.68622972893242</v>
       </c>
       <c r="I7" t="n">
-        <v>42.9100694716855</v>
+        <v>42.91006947168552</v>
       </c>
       <c r="J7" t="n">
         <v>100.8801723945883</v>
       </c>
       <c r="K7" t="n">
-        <v>165.7771124087486</v>
+        <v>165.7771124087487</v>
       </c>
       <c r="L7" t="n">
         <v>212.1376288210232</v>
       </c>
       <c r="M7" t="n">
-        <v>223.6693857014126</v>
+        <v>223.6693857014127</v>
       </c>
       <c r="N7" t="n">
-        <v>218.3510276350914</v>
+        <v>218.3510276350915</v>
       </c>
       <c r="O7" t="n">
-        <v>201.6825151589378</v>
+        <v>201.6825151589379</v>
       </c>
       <c r="P7" t="n">
-        <v>172.5742334496081</v>
+        <v>172.5742334496082</v>
       </c>
       <c r="Q7" t="n">
-        <v>119.4814540216732</v>
+        <v>119.4814540216733</v>
       </c>
       <c r="R7" t="n">
-        <v>64.15755852689129</v>
+        <v>64.15755852689132</v>
       </c>
       <c r="S7" t="n">
-        <v>24.86656686131229</v>
+        <v>24.8665668613123</v>
       </c>
       <c r="T7" t="n">
-        <v>6.096654368709848</v>
+        <v>6.09665436870985</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07782963023884923</v>
+        <v>0.07782963023884926</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869147</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639242</v>
+        <v>49.49729877639239</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285605</v>
+        <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203919</v>
+        <v>410.2059184203917</v>
       </c>
       <c r="K11" t="n">
-        <v>614.792336797513</v>
+        <v>614.7923367975127</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544661</v>
+        <v>762.7042574544657</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954566</v>
+        <v>848.655443795456</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180174</v>
+        <v>862.3875761180168</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956809</v>
+        <v>814.3281336956804</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620362</v>
+        <v>695.0102219620359</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825973</v>
+        <v>521.9237322825969</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696631</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900933</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.1570292096822</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495317</v>
+        <v>0.3866504481495315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858574</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837097</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469216</v>
+        <v>89.03390294469212</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193139</v>
+        <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598383</v>
+        <v>417.5746757598381</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747752</v>
+        <v>346.570093142789</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821484</v>
+        <v>655.2214742821481</v>
       </c>
       <c r="N12" t="n">
-        <v>282.4162185798837</v>
+        <v>672.5632370340505</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924478</v>
+        <v>615.2639659924474</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383448</v>
+        <v>493.8035753383446</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047542</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627656</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868434</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.17012847696438</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535158</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092169</v>
+        <v>19.27527754092168</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798458</v>
+        <v>65.19695102798455</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329028</v>
+        <v>251.8793936329027</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100543</v>
+        <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770066</v>
+        <v>339.8400926770064</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531031</v>
+        <v>331.7594548531029</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806241</v>
+        <v>306.4335533806239</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493066</v>
+        <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194576</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811716</v>
+        <v>97.48008457811711</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493542</v>
+        <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.26317018837749</v>
+        <v>9.263170188377485</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473724</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>290.6810969936921</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,7 +32312,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,22 +32321,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,19 +32549,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>753.6188077738268</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,7 +32807,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32965,7 +32965,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33020,22 +33020,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,10 +33266,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,10 +33278,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
@@ -33506,7 +33506,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>353.6230700590495</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
@@ -33980,7 +33980,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34217,7 +34217,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868166</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.3822424078835</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973022</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916007</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406599</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781481</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848231</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855708</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765005</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>28.4584419706827</v>
+        <v>92.63945645062402</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880153</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663202</v>
+        <v>123.3445726863781</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O4" t="n">
-        <v>164.3820236732831</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.93550073197764</v>
+        <v>88.93550073197775</v>
       </c>
       <c r="K5" t="n">
-        <v>184.542289978266</v>
+        <v>184.5422899782661</v>
       </c>
       <c r="L5" t="n">
-        <v>266.2155359907823</v>
+        <v>266.2155359907824</v>
       </c>
       <c r="M5" t="n">
-        <v>328.2054087836595</v>
+        <v>328.2054087836599</v>
       </c>
       <c r="N5" t="n">
-        <v>338.1765279298416</v>
+        <v>338.1765279298418</v>
       </c>
       <c r="O5" t="n">
-        <v>305.8605449108154</v>
+        <v>305.8605449108156</v>
       </c>
       <c r="P5" t="n">
-        <v>226.1954029304542</v>
+        <v>226.1954029304543</v>
       </c>
       <c r="Q5" t="n">
-        <v>121.2039874654411</v>
+        <v>121.2039874654413</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>95.8225895317299</v>
+        <v>33.96144874760702</v>
       </c>
       <c r="K6" t="n">
-        <v>401.4550296211225</v>
+        <v>136.9897926085441</v>
       </c>
       <c r="L6" t="n">
-        <v>230.9901273638803</v>
+        <v>230.9901273638805</v>
       </c>
       <c r="M6" t="n">
-        <v>289.1069756264049</v>
+        <v>289.1069756264051</v>
       </c>
       <c r="N6" t="n">
-        <v>311.3129637901643</v>
+        <v>469.5770017178639</v>
       </c>
       <c r="O6" t="n">
-        <v>262.3463043693571</v>
+        <v>262.3463043693573</v>
       </c>
       <c r="P6" t="n">
-        <v>191.0276883744746</v>
+        <v>359.0900282434777</v>
       </c>
       <c r="Q6" t="n">
-        <v>77.27352004410335</v>
+        <v>77.27352004410344</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.520992277915511</v>
+        <v>7.520992277915553</v>
       </c>
       <c r="K7" t="n">
         <v>143.5076205828658</v>
       </c>
       <c r="L7" t="n">
-        <v>239.7276540813393</v>
+        <v>239.7276540813394</v>
       </c>
       <c r="M7" t="n">
-        <v>263.2532626632532</v>
+        <v>263.2532626632533</v>
       </c>
       <c r="N7" t="n">
-        <v>262.48320001432</v>
+        <v>262.4832000143201</v>
       </c>
       <c r="O7" t="n">
-        <v>226.2676430729775</v>
+        <v>226.2676430729776</v>
       </c>
       <c r="P7" t="n">
         <v>169.8527927145016</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.31941076997886</v>
+        <v>33.3194107699789</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676407</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>451.873198165787</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937056</v>
+        <v>229.1600138937054</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525325</v>
+        <v>394.7024857525321</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844788</v>
+        <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681839</v>
+        <v>618.3092105681833</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214265</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739941</v>
+        <v>584.2299222739937</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067667</v>
+        <v>463.7772262067663</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081477</v>
+        <v>299.6180424081474</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553096</v>
+        <v>88.01360235553079</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526472</v>
+        <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854793</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.926303694901</v>
+        <v>208.0157133629148</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601301</v>
+        <v>513.0874403601297</v>
       </c>
       <c r="N12" t="n">
-        <v>151.0745064965504</v>
+        <v>541.2215249507173</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480033</v>
+        <v>472.667721548003</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240146</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187327</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655348</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186287</v>
+        <v>59.91672319186279</v>
       </c>
       <c r="K13" t="n">
-        <v>229.60990180702</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703705</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388472</v>
+        <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323316</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946637</v>
+        <v>331.0186812946636</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142001</v>
+        <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776326</v>
+        <v>95.37638356776314</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>159.3393849103587</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,22 +35969,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295298</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>622.2770956904935</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,7 +36455,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899077</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060454</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,10 +36914,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,10 +36926,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>211.4890361370311</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,7 +37163,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394733</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
